--- a/Data/Simulated.xlsx
+++ b/Data/Simulated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericbonk/Desktop/School/Detour 2.0/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678C671B-6450-2D41-8B25-CD6CA6F0E336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7264743-D4E1-8840-A281-075B0DE9567F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11860" yWindow="2780" windowWidth="28040" windowHeight="16340" xr2:uid="{6F52FA6E-978E-5048-824C-9DBFC090AD3D}"/>
+    <workbookView xWindow="2200" yWindow="2100" windowWidth="28040" windowHeight="16340" xr2:uid="{6F52FA6E-978E-5048-824C-9DBFC090AD3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -164,20 +164,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -191,9 +182,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5230A1-D27E-9249-AB53-807D6153C547}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -539,7 +531,7 @@
     <col min="4" max="4" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,8 +544,14 @@
       <c r="D1" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -566,10 +564,14 @@
       <c r="D2">
         <v>0.9</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="6"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -582,10 +584,14 @@
       <c r="D3">
         <v>0.05</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="6"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -598,10 +604,14 @@
       <c r="D4">
         <v>0.05</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="6"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -614,10 +624,14 @@
       <c r="D5">
         <v>120</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="6"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -630,10 +644,14 @@
       <c r="D6">
         <v>500</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="6"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -646,10 +664,14 @@
       <c r="D7">
         <v>700</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -662,10 +684,14 @@
       <c r="D8">
         <v>0.4</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -678,8 +704,14 @@
       <c r="D9">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -692,8 +724,14 @@
       <c r="D10">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -706,8 +744,14 @@
       <c r="D11">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -720,8 +764,14 @@
       <c r="D12">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -735,7 +785,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -749,7 +799,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -763,7 +813,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
